--- a/Test Data Driven/AI-Generated/TC3-Navigate to Test Runs and Verify Home Page.xlsx
+++ b/Test Data Driven/AI-Generated/TC3-Navigate to Test Runs and Verify Home Page.xlsx
@@ -446,19 +446,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>div_testRun_internalRoleCellName</t>
+          <t>div_testRunItem_internalRoleCellName</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>div_testRun_internalRoleCellName_1</t>
+          <t>div_testRunItem_internalRoleCellName_1</t>
         </is>
       </c>
     </row>
